--- a/1Homework/DataBase/square.xlsx
+++ b/1Homework/DataBase/square.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rf1d9c063a2f246d2"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R8fc1b405b2aa4dd9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -36,8 +36,8 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF0000FF"/>
-        <x:bgColor rgb="FF0000FF"/>
+        <x:fgColor rgb="FFFF0000"/>
+        <x:bgColor rgb="FFFF0000"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/1Homework/DataBase/square.xlsx
+++ b/1Homework/DataBase/square.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R8fc1b405b2aa4dd9"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R54cf82b777fb45de"/>
   </x:sheets>
 </x:workbook>
 </file>
